--- a/outputs/house_democrats_committee_sponsor.xlsx
+++ b/outputs/house_democrats_committee_sponsor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,72 +482,255 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="C2">
+        <v>0.75</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
+        <v>0.6</v>
+      </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F3">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J3">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.75</v>
+      </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H6">
         <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6">
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
     </row>
@@ -555,57 +738,192 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I12">
+        <v>0.33333333333333331</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -613,65 +931,188 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.25</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="H16">
+        <v>0.25</v>
+      </c>
+      <c r="I16">
+        <v>0.25</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
+      <c r="B19">
+        <v>0.4</v>
+      </c>
+      <c r="C19">
+        <v>0.75</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
+        <v>0.2</v>
+      </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="G19">
+        <v>0.75</v>
       </c>
       <c r="H19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="J19">
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
+      <c r="B21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/house_democrats_committee_sponsor.xlsx
+++ b/outputs/house_democrats_committee_sponsor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/outputs/house_democrats_committee_sponsor.xlsx
+++ b/outputs/house_democrats_committee_sponsor.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Row</t>
   </si>
   <si>
-    <t>id5492</t>
-  </si>
-  <si>
     <t>id5499</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>id14446</t>
-  </si>
-  <si>
-    <t>id5489</t>
   </si>
   <si>
     <t>id5494</t>
@@ -438,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J21"/>
+      <selection sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,645 +468,515 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.75</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0.25</v>
-      </c>
-      <c r="C2">
-        <v>0.75</v>
-      </c>
-      <c r="D2">
-        <v>0.4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.4</v>
-      </c>
-      <c r="H2">
-        <v>0.6</v>
-      </c>
-      <c r="I2">
-        <v>0.25</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
       </c>
       <c r="B3">
         <v>0.33333333333333331</v>
       </c>
       <c r="C3">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D3">
         <v>0.33333333333333331</v>
       </c>
       <c r="E3">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F3">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0.33333333333333331</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="E6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I6">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>0.5</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
         <v>0.5</v>
       </c>
-      <c r="G5">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>0.5</v>
       </c>
-      <c r="H5">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>0.5</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D6">
+      <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="E6">
-        <v>0.75</v>
-      </c>
-      <c r="F6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H6">
+      <c r="I12">
         <v>0.5</v>
       </c>
-      <c r="I6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J12">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>0.25</v>
-      </c>
-      <c r="C16">
-        <v>0.5</v>
-      </c>
-      <c r="D16">
-        <v>0.5</v>
-      </c>
-      <c r="E16">
-        <v>0.25</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.25</v>
-      </c>
-      <c r="H16">
-        <v>0.25</v>
-      </c>
-      <c r="I16">
-        <v>0.25</v>
-      </c>
-      <c r="J16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
-        <v>0.5</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G18">
+        <v>0.66666666666666663</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4</v>
-      </c>
-      <c r="J19">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0.25</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.25</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C21">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F21">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G21">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H21">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
